--- a/iselUssSyncV2/OutputWSL/20220517_1428_D60L474W90Q7.4U0.17H56.8G2_S_DATA.xlsx
+++ b/iselUssSyncV2/OutputWSL/20220517_1428_D60L474W90Q7.4U0.17H56.8G2_S_DATA.xlsx
@@ -127,7 +127,7 @@
     <t>caseStr</t>
   </si>
   <si>
-    <t>1</t>
+    <t>kA</t>
   </si>
   <si>
     <t>Ftotal</t>
@@ -351,14 +351,16 @@
         <v>0.056522850950316464</v>
       </c>
       <c r="G2" s="0">
-        <v>0.061451952191235011</v>
-      </c>
-      <c r="H2" s="0"/>
+        <v>0.064921354581673266</v>
+      </c>
+      <c r="H2" s="0">
+        <v>0.0029213545816732705</v>
+      </c>
       <c r="I2" s="0">
         <v>0.044676554609112192</v>
       </c>
       <c r="J2" s="0">
-        <v>0.042794661354581674</v>
+        <v>0.040141035856573706</v>
       </c>
       <c r="K2" s="0">
         <v>0.002</v>
@@ -406,7 +408,7 @@
         <v>0.22255329887736047</v>
       </c>
       <c r="Z2" s="0">
-        <v>0.210833644584181</v>
+        <v>0.23208199238474519</v>
       </c>
       <c r="AA2" s="0">
         <v>0.19778867074731254</v>
@@ -426,21 +428,17 @@
       <c r="AF2" s="0">
         <v>2.000086268406688</v>
       </c>
-      <c r="AG2" s="0">
-        <v>5.35418718819564</v>
-      </c>
+      <c r="AG2" s="0"/>
       <c r="AH2" s="0">
         <v>3.281213418265656</v>
       </c>
       <c r="AI2" s="0">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="AJ2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="AK2" s="0">
-        <v>7.3542734566023285</v>
-      </c>
+      <c r="AK2" s="0"/>
     </row>
   </sheetData>
 </worksheet>
